--- a/src/test/resources/case/CaseList.xlsx
+++ b/src/test/resources/case/CaseList.xlsx
@@ -10,7 +10,6 @@
     <sheet name="CaseList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,15 +41,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getevaluation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getevaluation.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +378,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -408,18 +407,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/CaseList.xlsx
+++ b/src/test/resources/case/CaseList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>FilePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,7 +49,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base</t>
+    <t>Base1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base2</t>
+  </si>
+  <si>
+    <t>Base3</t>
+  </si>
+  <si>
+    <t>Base4</t>
+  </si>
+  <si>
+    <t>Base5</t>
+  </si>
+  <si>
+    <t>Base6</t>
+  </si>
+  <si>
+    <t>Base7</t>
+  </si>
+  <si>
+    <t>Base8</t>
+  </si>
+  <si>
+    <t>Base9</t>
+  </si>
+  <si>
+    <t>base1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>education.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,8 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -375,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,24 +447,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
